--- a/dataanalysis/data/predictions/1200/09231132_1134.xlsx
+++ b/dataanalysis/data/predictions/1200/09231132_1134.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-23</t>
   </si>
   <si>
@@ -371,12 +374,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -734,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,19 +840,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300111</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>16.13</v>
@@ -873,7 +873,7 @@
         <v>240517.22</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -915,10 +915,25 @@
         <v>-6.56</v>
       </c>
       <c r="X2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y2">
+        <v>20.03</v>
+      </c>
+      <c r="Z2">
+        <v>8.57</v>
+      </c>
+      <c r="AA2">
+        <v>24.02</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -926,22 +941,25 @@
       <c r="AG2">
         <v>55.03994369506836</v>
       </c>
-      <c r="AH2" t="s">
-        <v>119</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300115</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-5.97</v>
@@ -959,7 +977,7 @@
         <v>581645.8199999999</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1001,10 +1019,25 @@
         <v>-0.6</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y3">
+        <v>8.93</v>
+      </c>
+      <c r="Z3">
+        <v>41.2</v>
+      </c>
+      <c r="AA3">
+        <v>16.15</v>
       </c>
       <c r="AC3" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1012,22 +1045,25 @@
       <c r="AG3">
         <v>4.451077461242676</v>
       </c>
-      <c r="AH3" t="s">
-        <v>119</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300139</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.1</v>
@@ -1045,7 +1081,7 @@
         <v>169981.73</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -1087,10 +1123,25 @@
         <v>-0.29</v>
       </c>
       <c r="X4" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y4">
+        <v>0.47</v>
+      </c>
+      <c r="Z4">
+        <v>28.5</v>
+      </c>
+      <c r="AA4">
+        <v>2.89</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1098,22 +1149,25 @@
       <c r="AG4">
         <v>-1.193352937698364</v>
       </c>
-      <c r="AH4" t="s">
-        <v>119</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300207</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.72</v>
@@ -1131,7 +1185,7 @@
         <v>386855.37</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1173,10 +1227,25 @@
         <v>0.32</v>
       </c>
       <c r="X5" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y5">
+        <v>3.43</v>
+      </c>
+      <c r="Z5">
+        <v>33.52</v>
+      </c>
+      <c r="AA5">
+        <v>7.37</v>
       </c>
       <c r="AC5" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1184,22 +1253,25 @@
       <c r="AG5">
         <v>5.056202411651611</v>
       </c>
-      <c r="AH5" t="s">
-        <v>119</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300250</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>12.96</v>
@@ -1217,7 +1289,7 @@
         <v>163252.29</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1259,10 +1331,25 @@
         <v>-1.73</v>
       </c>
       <c r="X6" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y6">
+        <v>1.75</v>
+      </c>
+      <c r="Z6">
+        <v>28.56</v>
+      </c>
+      <c r="AA6">
+        <v>15.39</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1270,22 +1357,25 @@
       <c r="AG6">
         <v>-1.457281947135925</v>
       </c>
-      <c r="AH6" t="s">
-        <v>119</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300450</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.31</v>
@@ -1303,7 +1393,7 @@
         <v>1010152.76</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>18</v>
@@ -1345,10 +1435,25 @@
         <v>-0.04</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y7">
+        <v>7.27</v>
+      </c>
+      <c r="Z7">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>11.93</v>
       </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1356,22 +1461,25 @@
       <c r="AG7">
         <v>59.57572937011719</v>
       </c>
-      <c r="AH7" t="s">
-        <v>119</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300457</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.63</v>
@@ -1389,7 +1497,7 @@
         <v>145346.91</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8">
         <v>16</v>
@@ -1431,10 +1539,25 @@
         <v>-0.01</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y8">
+        <v>0.57</v>
+      </c>
+      <c r="Z8">
+        <v>36.6</v>
+      </c>
+      <c r="AA8">
+        <v>6.43</v>
       </c>
       <c r="AC8" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1442,22 +1565,25 @@
       <c r="AG8">
         <v>2.815521001815796</v>
       </c>
-      <c r="AH8" t="s">
-        <v>119</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300469</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-2.66</v>
@@ -1475,7 +1601,7 @@
         <v>74796.17</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>24</v>
@@ -1517,10 +1643,25 @@
         <v>-0.15</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y9">
+        <v>-2.89</v>
+      </c>
+      <c r="Z9">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>2.04</v>
       </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1528,22 +1669,25 @@
       <c r="AG9">
         <v>2.044512033462524</v>
       </c>
-      <c r="AH9" t="s">
-        <v>119</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300475</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-7.03</v>
@@ -1561,7 +1705,7 @@
         <v>306854.45</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>13</v>
@@ -1603,10 +1747,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X10" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y10">
+        <v>1.98</v>
+      </c>
+      <c r="Z10">
+        <v>86.66</v>
+      </c>
+      <c r="AA10">
+        <v>6.33</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1614,22 +1773,25 @@
       <c r="AG10">
         <v>1.379561543464661</v>
       </c>
-      <c r="AH10" t="s">
-        <v>119</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300507</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.29</v>
@@ -1647,7 +1809,7 @@
         <v>73524.17</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1689,10 +1851,25 @@
         <v>0.09</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y11">
+        <v>0.89</v>
+      </c>
+      <c r="Z11">
+        <v>10.38</v>
+      </c>
+      <c r="AA11">
+        <v>4.32</v>
       </c>
       <c r="AC11" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1700,22 +1877,25 @@
       <c r="AG11">
         <v>9.507359504699707</v>
       </c>
-      <c r="AH11" t="s">
-        <v>119</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300539</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.6</v>
@@ -1733,7 +1913,7 @@
         <v>108175.54</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12">
         <v>13</v>
@@ -1775,10 +1955,25 @@
         <v>0.03</v>
       </c>
       <c r="X12" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y12">
+        <v>0.65</v>
+      </c>
+      <c r="Z12">
+        <v>51.88</v>
+      </c>
+      <c r="AA12">
+        <v>4.3</v>
       </c>
       <c r="AC12" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1786,22 +1981,25 @@
       <c r="AG12">
         <v>-0.6974784135818481</v>
       </c>
-      <c r="AH12" t="s">
-        <v>119</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300604</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1819,7 +2017,7 @@
         <v>397897.7</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>20</v>
@@ -1861,10 +2059,25 @@
         <v>1.24</v>
       </c>
       <c r="X13" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>20</v>
       </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1872,22 +2085,25 @@
       <c r="AG13">
         <v>3.45917797088623</v>
       </c>
-      <c r="AH13" t="s">
-        <v>119</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300620</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-7.31</v>
@@ -1905,7 +2121,7 @@
         <v>334387.48</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1947,10 +2163,25 @@
         <v>-0.9</v>
       </c>
       <c r="X14" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y14">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>128.15</v>
+      </c>
+      <c r="AA14">
+        <v>0.03</v>
       </c>
       <c r="AC14" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1958,22 +2189,25 @@
       <c r="AG14">
         <v>1.501328825950623</v>
       </c>
-      <c r="AH14" t="s">
-        <v>119</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300680</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.93</v>
@@ -1991,7 +2225,7 @@
         <v>101927.95</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -2033,10 +2267,25 @@
         <v>0.4</v>
       </c>
       <c r="X15" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y15">
+        <v>2.41</v>
+      </c>
+      <c r="Z15">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="AA15">
+        <v>7.06</v>
       </c>
       <c r="AC15" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2044,22 +2293,25 @@
       <c r="AG15">
         <v>4.038333892822266</v>
       </c>
-      <c r="AH15" t="s">
-        <v>119</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300814</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5.13</v>
@@ -2077,7 +2329,7 @@
         <v>93549.44</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2119,10 +2371,25 @@
         <v>1.39</v>
       </c>
       <c r="X16" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="Y16">
+        <v>-0.95</v>
+      </c>
+      <c r="Z16">
+        <v>52.49</v>
+      </c>
+      <c r="AA16">
+        <v>-4.01</v>
       </c>
       <c r="AC16" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2130,22 +2397,25 @@
       <c r="AG16">
         <v>2.209359169006348</v>
       </c>
-      <c r="AH16" t="s">
-        <v>119</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300857</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-6.03</v>
@@ -2163,7 +2433,7 @@
         <v>303966.44</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17">
         <v>23</v>
@@ -2205,10 +2475,25 @@
         <v>-0.29</v>
       </c>
       <c r="X17" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y17">
+        <v>1.79</v>
+      </c>
+      <c r="Z17">
+        <v>174.4</v>
+      </c>
+      <c r="AA17">
+        <v>6.03</v>
       </c>
       <c r="AC17" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2216,22 +2501,25 @@
       <c r="AG17">
         <v>4.133646965026855</v>
       </c>
-      <c r="AH17" t="s">
-        <v>119</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300959</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-1.81</v>
@@ -2249,7 +2537,7 @@
         <v>77694.67999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2291,10 +2579,25 @@
         <v>1.03</v>
       </c>
       <c r="X18" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y18">
+        <v>-2.64</v>
+      </c>
+      <c r="Z18">
+        <v>82</v>
+      </c>
+      <c r="AA18">
+        <v>4.39</v>
       </c>
       <c r="AC18" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2302,22 +2605,25 @@
       <c r="AG18">
         <v>5.450173377990723</v>
       </c>
-      <c r="AH18" t="s">
-        <v>119</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300969</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>16.9</v>
@@ -2335,7 +2641,7 @@
         <v>68875.42</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2377,10 +2683,25 @@
         <v>0.09</v>
       </c>
       <c r="X19" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y19">
+        <v>-2.16</v>
+      </c>
+      <c r="Z19">
+        <v>137.47</v>
+      </c>
+      <c r="AA19">
+        <v>-2.49</v>
       </c>
       <c r="AC19" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2388,22 +2709,25 @@
       <c r="AG19">
         <v>0.3307860791683197</v>
       </c>
-      <c r="AH19" t="s">
-        <v>119</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300993</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-6.47</v>
@@ -2421,7 +2745,7 @@
         <v>53395.96</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2462,8 +2786,23 @@
       <c r="W20">
         <v>0.03</v>
       </c>
+      <c r="Y20">
+        <v>-10.81</v>
+      </c>
+      <c r="Z20">
+        <v>21.17</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2471,22 +2810,25 @@
       <c r="AG20">
         <v>-5.916985988616943</v>
       </c>
-      <c r="AH20" t="s">
-        <v>119</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>301008</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>6.97</v>
@@ -2504,7 +2846,7 @@
         <v>79559.03</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2546,10 +2888,25 @@
         <v>0.43</v>
       </c>
       <c r="X21" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y21">
+        <v>-5.74</v>
+      </c>
+      <c r="Z21">
+        <v>51.74</v>
+      </c>
+      <c r="AA21">
+        <v>-0.27</v>
       </c>
       <c r="AC21" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2557,22 +2914,25 @@
       <c r="AG21">
         <v>3.861062288284302</v>
       </c>
-      <c r="AH21" t="s">
-        <v>119</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>301013</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-6.85</v>
@@ -2590,7 +2950,7 @@
         <v>145765.34</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2632,10 +2992,25 @@
         <v>-0.15</v>
       </c>
       <c r="X22" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y22">
+        <v>-4.52</v>
+      </c>
+      <c r="Z22">
+        <v>29.48</v>
+      </c>
+      <c r="AA22">
+        <v>3.77</v>
       </c>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2643,22 +3018,25 @@
       <c r="AG22">
         <v>5.939789772033691</v>
       </c>
-      <c r="AH22" t="s">
-        <v>119</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301307</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.77</v>
@@ -2676,7 +3054,7 @@
         <v>59154.73</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2718,10 +3096,25 @@
         <v>0.52</v>
       </c>
       <c r="X23" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y23">
+        <v>-0.45</v>
+      </c>
+      <c r="Z23">
+        <v>43.21</v>
+      </c>
+      <c r="AA23">
+        <v>9.98</v>
       </c>
       <c r="AC23" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2729,22 +3122,25 @@
       <c r="AG23">
         <v>9.724931716918945</v>
       </c>
-      <c r="AH23" t="s">
-        <v>119</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301308</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-1.27</v>
@@ -2762,7 +3158,7 @@
         <v>224799</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2804,10 +3200,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X24" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y24">
+        <v>4.55</v>
+      </c>
+      <c r="Z24">
+        <v>157.77</v>
+      </c>
+      <c r="AA24">
+        <v>13.58</v>
       </c>
       <c r="AC24" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2815,22 +3226,25 @@
       <c r="AG24">
         <v>13.03891468048096</v>
       </c>
-      <c r="AH24" t="s">
-        <v>120</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301421</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>6.39</v>
@@ -2848,7 +3262,7 @@
         <v>195416.77</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2890,10 +3304,25 @@
         <v>0.61</v>
       </c>
       <c r="X25" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y25">
+        <v>-1.47</v>
+      </c>
+      <c r="Z25">
+        <v>142.09</v>
+      </c>
+      <c r="AA25">
+        <v>23.66</v>
       </c>
       <c r="AC25" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2901,22 +3330,25 @@
       <c r="AG25">
         <v>1.123099088668823</v>
       </c>
-      <c r="AH25" t="s">
-        <v>119</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301488</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.98</v>
@@ -2934,7 +3366,7 @@
         <v>101276.53</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26">
         <v>20</v>
@@ -2976,10 +3408,25 @@
         <v>0.16</v>
       </c>
       <c r="X26" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y26">
+        <v>-7.34</v>
+      </c>
+      <c r="Z26">
+        <v>187</v>
+      </c>
+      <c r="AA26">
+        <v>-0.51</v>
       </c>
       <c r="AC26" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2987,22 +3434,25 @@
       <c r="AG26">
         <v>7.530527591705322</v>
       </c>
-      <c r="AH26" t="s">
-        <v>119</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301489</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.98</v>
@@ -3020,7 +3470,7 @@
         <v>90544.56</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K27">
         <v>11</v>
@@ -3062,10 +3512,25 @@
         <v>-0.2</v>
       </c>
       <c r="X27" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y27">
+        <v>1.86</v>
+      </c>
+      <c r="Z27">
+        <v>275.28</v>
+      </c>
+      <c r="AA27">
+        <v>5.88</v>
       </c>
       <c r="AC27" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3073,22 +3538,25 @@
       <c r="AG27">
         <v>-3.920668363571167</v>
       </c>
-      <c r="AH27" t="s">
-        <v>119</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301550</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.71</v>
@@ -3106,7 +3574,7 @@
         <v>52631.36</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3148,10 +3616,25 @@
         <v>0.03</v>
       </c>
       <c r="X28" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y28">
+        <v>2.55</v>
+      </c>
+      <c r="Z28">
+        <v>136.88</v>
+      </c>
+      <c r="AA28">
+        <v>5.66</v>
       </c>
       <c r="AC28" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3159,22 +3642,25 @@
       <c r="AG28">
         <v>5.69290828704834</v>
       </c>
-      <c r="AH28" t="s">
-        <v>119</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688028</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-5.01</v>
@@ -3192,7 +3678,7 @@
         <v>35884.77</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -3234,10 +3720,25 @@
         <v>-0.06</v>
       </c>
       <c r="X29" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y29">
+        <v>4.76</v>
+      </c>
+      <c r="Z29">
+        <v>53.67</v>
+      </c>
+      <c r="AA29">
+        <v>11.42</v>
       </c>
       <c r="AC29" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3245,22 +3746,25 @@
       <c r="AG29">
         <v>2.648540258407593</v>
       </c>
-      <c r="AH29" t="s">
-        <v>119</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688041</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.99</v>
@@ -3278,7 +3782,7 @@
         <v>948794.47</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3320,10 +3824,25 @@
         <v>-0.1</v>
       </c>
       <c r="X30" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y30">
+        <v>2.05</v>
+      </c>
+      <c r="Z30">
+        <v>267</v>
+      </c>
+      <c r="AA30">
+        <v>6.46</v>
       </c>
       <c r="AC30" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3331,22 +3850,25 @@
       <c r="AG30">
         <v>150.7693023681641</v>
       </c>
-      <c r="AH30" t="s">
-        <v>119</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688123</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>9.369999999999999</v>
@@ -3364,7 +3886,7 @@
         <v>200239.76</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3406,10 +3928,25 @@
         <v>-0.66</v>
       </c>
       <c r="X31" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y31">
+        <v>6.92</v>
+      </c>
+      <c r="Z31">
+        <v>133.82</v>
+      </c>
+      <c r="AA31">
+        <v>13.41</v>
       </c>
       <c r="AC31" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3417,22 +3954,25 @@
       <c r="AG31">
         <v>8.595410346984863</v>
       </c>
-      <c r="AH31" t="s">
-        <v>119</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688135</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>6.79</v>
@@ -3450,7 +3990,7 @@
         <v>93747.44</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>16</v>
@@ -3492,10 +4032,25 @@
         <v>0.92</v>
       </c>
       <c r="X32" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y32">
+        <v>-0.05</v>
+      </c>
+      <c r="Z32">
+        <v>39.48</v>
+      </c>
+      <c r="AA32">
+        <v>4.64</v>
       </c>
       <c r="AC32" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3503,22 +4058,25 @@
       <c r="AG32">
         <v>0.8289443850517273</v>
       </c>
-      <c r="AH32" t="s">
-        <v>119</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688195</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-6.64</v>
@@ -3536,7 +4094,7 @@
         <v>129703.26</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33">
         <v>27</v>
@@ -3578,10 +4136,25 @@
         <v>-0.53</v>
       </c>
       <c r="X33" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y33">
+        <v>-4.47</v>
+      </c>
+      <c r="Z33">
+        <v>142</v>
+      </c>
+      <c r="AA33">
+        <v>6.37</v>
       </c>
       <c r="AC33" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3589,22 +4162,25 @@
       <c r="AG33">
         <v>4.494991779327393</v>
       </c>
-      <c r="AH33" t="s">
-        <v>119</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688228</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-12.8</v>
@@ -3622,7 +4198,7 @@
         <v>60544.26</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34">
         <v>10</v>
@@ -3664,10 +4240,25 @@
         <v>-0.08</v>
       </c>
       <c r="X34" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y34">
+        <v>2.27</v>
+      </c>
+      <c r="Z34">
+        <v>200.88</v>
+      </c>
+      <c r="AA34">
+        <v>7.65</v>
       </c>
       <c r="AC34" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3675,22 +4266,25 @@
       <c r="AG34">
         <v>3.630101680755615</v>
       </c>
-      <c r="AH34" t="s">
-        <v>119</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688400</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-6.51</v>
@@ -3708,7 +4302,7 @@
         <v>127716.3</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3749,8 +4343,23 @@
       <c r="W35">
         <v>-0.17</v>
       </c>
+      <c r="Y35">
+        <v>-5.28</v>
+      </c>
+      <c r="Z35">
+        <v>51.68</v>
+      </c>
+      <c r="AA35">
+        <v>3.09</v>
+      </c>
       <c r="AC35" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3758,22 +4367,25 @@
       <c r="AG35">
         <v>5.301570415496826</v>
       </c>
-      <c r="AH35" t="s">
-        <v>119</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688411</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>13.86</v>
@@ -3791,7 +4403,7 @@
         <v>103184.32</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>16</v>
@@ -3833,10 +4445,25 @@
         <v>0.11</v>
       </c>
       <c r="X36" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y36">
+        <v>4.3</v>
+      </c>
+      <c r="Z36">
+        <v>278.2</v>
+      </c>
+      <c r="AA36">
+        <v>12.36</v>
       </c>
       <c r="AC36" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3844,22 +4471,25 @@
       <c r="AG36">
         <v>-2.686950922012329</v>
       </c>
-      <c r="AH36" t="s">
-        <v>119</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688521</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-0.1</v>
@@ -3877,7 +4507,7 @@
         <v>454122.85</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K37">
         <v>15</v>
@@ -3919,10 +4549,25 @@
         <v>-0.34</v>
       </c>
       <c r="X37" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y37">
+        <v>-3.35</v>
+      </c>
+      <c r="Z37">
+        <v>205.88</v>
+      </c>
+      <c r="AA37">
+        <v>1.52</v>
       </c>
       <c r="AC37" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3930,22 +4575,25 @@
       <c r="AG37">
         <v>7.857491493225098</v>
       </c>
-      <c r="AH37" t="s">
-        <v>119</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688525</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>1.68</v>
@@ -3963,7 +4611,7 @@
         <v>262128.59</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4005,10 +4653,25 @@
         <v>0.77</v>
       </c>
       <c r="X38" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y38">
+        <v>6.51</v>
+      </c>
+      <c r="Z38">
+        <v>95.18000000000001</v>
+      </c>
+      <c r="AA38">
+        <v>10.8</v>
       </c>
       <c r="AC38" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4016,22 +4679,25 @@
       <c r="AG38">
         <v>-4.040472030639648</v>
       </c>
-      <c r="AH38" t="s">
-        <v>119</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688627</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>15.03</v>
@@ -4049,7 +4715,7 @@
         <v>102291.29</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -4091,10 +4757,25 @@
         <v>0.17</v>
       </c>
       <c r="X39" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y39">
+        <v>1.13</v>
+      </c>
+      <c r="Z39">
+        <v>188.95</v>
+      </c>
+      <c r="AA39">
+        <v>7.36</v>
       </c>
       <c r="AC39" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4102,22 +4783,25 @@
       <c r="AG39">
         <v>16.44411849975586</v>
       </c>
-      <c r="AH39" t="s">
-        <v>119</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688629</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-6.31</v>
@@ -4135,7 +4819,7 @@
         <v>142852.33</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -4177,10 +4861,25 @@
         <v>-0.72</v>
       </c>
       <c r="X40" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y40">
+        <v>-0.78</v>
+      </c>
+      <c r="Z40">
+        <v>103.62</v>
+      </c>
+      <c r="AA40">
+        <v>2.7</v>
       </c>
       <c r="AC40" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4188,22 +4887,25 @@
       <c r="AG40">
         <v>5.587488174438477</v>
       </c>
-      <c r="AH40" t="s">
-        <v>119</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688678</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-4.66</v>
@@ -4221,7 +4923,7 @@
         <v>46533.14</v>
       </c>
       <c r="J41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4263,10 +4965,25 @@
         <v>-0.14</v>
       </c>
       <c r="X41" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y41">
+        <v>-3.26</v>
+      </c>
+      <c r="Z41">
+        <v>37.37</v>
+      </c>
+      <c r="AA41">
+        <v>7.39</v>
       </c>
       <c r="AC41" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4274,22 +4991,25 @@
       <c r="AG41">
         <v>1.157402515411377</v>
       </c>
-      <c r="AH41" t="s">
-        <v>119</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688766</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-5.5</v>
@@ -4307,7 +5027,7 @@
         <v>114112.35</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4349,10 +5069,25 @@
         <v>-0.01</v>
       </c>
       <c r="X42" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y42">
+        <v>2.35</v>
+      </c>
+      <c r="Z42">
+        <v>110.49</v>
+      </c>
+      <c r="AA42">
+        <v>7.53</v>
       </c>
       <c r="AC42" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4360,22 +5095,25 @@
       <c r="AG42">
         <v>4.340790748596191</v>
       </c>
-      <c r="AH42" t="s">
-        <v>119</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688981</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-4.1</v>
@@ -4393,7 +5131,7 @@
         <v>1146687.28</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -4435,10 +5173,25 @@
         <v>-0.64</v>
       </c>
       <c r="X43" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y43">
+        <v>5.03</v>
+      </c>
+      <c r="Z43">
+        <v>137.98</v>
+      </c>
+      <c r="AA43">
+        <v>11.61</v>
       </c>
       <c r="AC43" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4446,8 +5199,11 @@
       <c r="AG43">
         <v>7.432891368865967</v>
       </c>
-      <c r="AH43" t="s">
-        <v>119</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
